--- a/notes/playwright_Diagram.xlsx
+++ b/notes/playwright_Diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bgccs-my.sharepoint.com/personal/kaungmyat_oo_cantor_com/Documents/Documents/Playwright/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="255" documentId="8_{391600F2-502B-4302-AF73-A0ECBC7CAA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53391C17-D26A-4E7D-A7C1-B292F9D2BCE4}"/>
+  <xr:revisionPtr revIDLastSave="287" documentId="8_{391600F2-502B-4302-AF73-A0ECBC7CAA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49EB845A-5057-4D26-8DBC-4FCD2B1ABEA4}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="12675" yWindow="6705" windowWidth="28800" windowHeight="15345" tabRatio="275" xr2:uid="{D5856ED1-B9FD-4877-A692-86F289E8F5A4}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="275" activeTab="1" xr2:uid="{D5856ED1-B9FD-4877-A692-86F289E8F5A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Java Script" sheetId="1" r:id="rId1"/>
@@ -5802,6 +5802,768 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>59242</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF6F097F-76DF-157A-4BD5-4F5D7DAE7691}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10715625" y="761999"/>
+          <a:ext cx="8850817" cy="6505575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>399395</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72B92DA4-BA62-DBA6-8A0D-ECC8B42B6810}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="761999"/>
+          <a:ext cx="10152995" cy="5781675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>215278</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88D21286-550F-A9A6-F747-4D1FD8CDCFB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20726399" y="761999"/>
+          <a:ext cx="6311279" cy="6562725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>27299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EAEA942-9FA0-C421-85E7-EEE3B0EF2872}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20726399" y="7429500"/>
+          <a:ext cx="6334125" cy="6885299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Double Bracket 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2350A4D-C26B-9664-E9F4-FEE52C4AF494}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21488400" y="5124450"/>
+          <a:ext cx="3524250" cy="1685925"/>
+        </a:xfrm>
+        <a:prstGeom prst="bracketPair">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Double Bracket 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85AC1D17-4692-4C69-B2B9-6CD7B6F10456}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21250275" y="12592050"/>
+          <a:ext cx="3524250" cy="1685925"/>
+        </a:xfrm>
+        <a:prstGeom prst="bracketPair">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Arrow: Right 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C524E32-8F7B-D699-417D-971D90211DA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10601325" y="3000375"/>
+          <a:ext cx="600075" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Arrow: Right 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D4F372-E61D-4928-8E4B-9819756873B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10487025" y="4638675"/>
+          <a:ext cx="600075" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Arrow: Right 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE62C2C2-7A84-468B-BABC-4F716D6CCBD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="761999"/>
+          <a:ext cx="600075" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Arrow: Right 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDA29D27-DEEB-4AC7-9501-DE924396BE5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10382250" y="5476875"/>
+          <a:ext cx="600075" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Double Bracket 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16C4A7FD-59A3-C1E3-CCB5-03259369BCC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142874" y="2190750"/>
+          <a:ext cx="9705976" cy="1952625"/>
+        </a:xfrm>
+        <a:prstGeom prst="bracketPair">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Arrow: Right 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3FC8F3A-C7CC-4EF9-A743-429CF5DE871A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3076575" y="5838825"/>
+          <a:ext cx="600075" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Arrow: Right 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1F135CB-5528-4183-8C32-E683596E973C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3105150" y="4991100"/>
+          <a:ext cx="600075" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Connector: Elbow 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43970A0D-9AFF-A017-6EDD-4694F1354178}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9848850" y="3167063"/>
+          <a:ext cx="11639550" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6126,8 +6888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C386ADB-1941-4F63-8437-25BC6B2BC58F}">
   <dimension ref="A1:AY149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AY1" sqref="AY1"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AO6" sqref="AO6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6199,10 +6961,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24DC7FD-53FF-4717-B1CD-882DF14F719A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/notes/playwright_Diagram.xlsx
+++ b/notes/playwright_Diagram.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bgccs-my.sharepoint.com/personal/kaungmyat_oo_cantor_com/Documents/Documents/Playwright/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="287" documentId="8_{391600F2-502B-4302-AF73-A0ECBC7CAA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49EB845A-5057-4D26-8DBC-4FCD2B1ABEA4}"/>
+  <xr:revisionPtr revIDLastSave="314" documentId="8_{391600F2-502B-4302-AF73-A0ECBC7CAA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2291AFE4-7607-4040-B88F-2502461170C9}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="275" activeTab="1" xr2:uid="{D5856ED1-B9FD-4877-A692-86F289E8F5A4}"/>
+    <workbookView xWindow="-26055" yWindow="1785" windowWidth="21645" windowHeight="11325" tabRatio="275" activeTab="2" xr2:uid="{D5856ED1-B9FD-4877-A692-86F289E8F5A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Java Script" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>POManager</t>
   </si>
@@ -157,6 +158,18 @@
       <t>steps.js</t>
     </r>
   </si>
+  <si>
+    <t>FMD.FX.OPTION.USDTWD.S25.ON</t>
+  </si>
+  <si>
+    <t>USDTWD</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>S25</t>
+  </si>
 </sst>
 </file>
 
@@ -246,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -255,6 +268,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5804,6 +5819,366 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>459441</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>515471</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>280147</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C4E57AA-31C2-2F63-A0A8-96EB7297E114}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19823206" y="21873883"/>
+          <a:ext cx="1266265" cy="156882"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>481853</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C36BD697-7BB0-4B5B-B583-245BE2ABDCD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19845618" y="22131617"/>
+          <a:ext cx="806823" cy="134472"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>291352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>336176</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6EEBCD1-8CF6-4314-AB84-CF292C949021}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28631030" y="22041970"/>
+          <a:ext cx="1355911" cy="123265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>437029</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>134472</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{522D445A-F0DC-4F08-80AD-C7CA1474DD93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28675853" y="22243676"/>
+          <a:ext cx="806823" cy="134472"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{087711A8-A060-41D9-BCC2-53FCB03DAD87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28631030" y="23106528"/>
+          <a:ext cx="1131794" cy="168089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>448234</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{842B954C-5668-4210-AABA-53E85BAD0987}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28687058" y="23330646"/>
+          <a:ext cx="806823" cy="134472"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6567,6 +6942,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6888,8 +7267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C386ADB-1941-4F63-8437-25BC6B2BC58F}">
   <dimension ref="A1:AY149"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AO6" sqref="AO6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6961,8 +7340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24DC7FD-53FF-4717-B1CD-882DF14F719A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6970,4 +7349,133 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E247F14-EBBC-4E85-AF86-72FEB117A107}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="B1">
+        <v>7.9750000000000001E-2</v>
+      </c>
+      <c r="C1">
+        <v>8.7050000000000002E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-1.89E-2</v>
+      </c>
+      <c r="B2">
+        <v>-2.1100000000000001E-2</v>
+      </c>
+      <c r="C2">
+        <v>-1.67E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-1.06E-2</v>
+      </c>
+      <c r="B3">
+        <v>-1.2699999999999999E-2</v>
+      </c>
+      <c r="C3">
+        <v>-8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.21E-2</v>
+      </c>
+      <c r="B4">
+        <v>0.01</v>
+      </c>
+      <c r="C4">
+        <v>1.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="B5" s="8">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="C5">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8.4900000000000003E-2</v>
+      </c>
+      <c r="B6">
+        <v>8.1250000000000003E-2</v>
+      </c>
+      <c r="C6">
+        <v>8.8550000000000004E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-1.8800000000000001E-2</v>
+      </c>
+      <c r="B7">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="C7">
+        <v>-1.66E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-1.11E-2</v>
+      </c>
+      <c r="B8">
+        <v>-1.32E-2</v>
+      </c>
+      <c r="C8">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="F11">
+        <v>-2.545E-2</v>
+      </c>
+      <c r="G11">
+        <v>3.3250000000000002E-2</v>
+      </c>
+      <c r="H11" s="9">
+        <v>45811.331944444442</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>